--- a/기능정의서/기능 정의서_통합 v1.0.xlsx
+++ b/기능정의서/기능 정의서_통합 v1.0.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git_230402\기능정의서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C1798E-1400-4CE0-82E3-922C4A1BD465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60DDDE57-E3FB-4ACC-8EC6-AF75ABB4FE7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="204">
   <si>
     <t>기능코드</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -72,24 +72,6 @@
   </si>
   <si>
     <t>cart</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품추가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품삭제</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도서 수량별
-금액 계산</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문정보 및
-배송정보 수정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -123,15 +105,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상품주문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>X</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>목록조회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -154,36 +128,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>회원탈퇴</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주문내역/
-배송조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>반품/교환
-신청 및 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보 수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>개인정보 저장</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>배송 주소지 조회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>* 회원가입 시 입력한 사용자 정보 조회</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -221,10 +165,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>취소 주문내역</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>mypage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -282,10 +222,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>logo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>search</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -299,11 +235,6 @@
   </si>
   <si>
     <t>*로고 클릭시 메인화면으로 이동함</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>*회사 소개, 이용약관, 개인정보취급방침,제휴/도서홍보,광고센터,고객만족센터,찾아오시는길 페이지 로 이동하는 링크 출력
-*회사 정보 출력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -441,38 +372,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>pay_method</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>delivery_address</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>스테디셀러</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>main goods</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>새로 출판된 책</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>베스트셀러</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>main</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3번 배너</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>main banner</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -481,15 +388,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2번 배너</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>main banner</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1번 배너</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -521,36 +420,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>출간량이 가장 많은 순서대로 상품 노출
-- 상품에 대한 이미지, 제목, 가격 제공
-- 상품에 대한 링크 구현
-- 상품은 4*4 배열로 배치
-- 최대 15개 상품까지 노출
-- 상품 수가 15개를 넘어가면 more 버튼으로 베스트셀러 페이지 호출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가장 최근에 출판된 순서대로 상품 노출
-- 상품은 4*4 배열로 배치
-- 최대 15개 상품까지 노출
-- 상품 수가 15개를 넘어가면 more 버튼으로 새로 출판된 책 페이지 호출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>판매량 기준 100위권 안에 가장 많이 머무른 순서대로 상품 노출
-- 상품은 4*4 배열로 배치
-- 최대 15개 상품까지 노출
-- 상품 수가 15개를 넘어가면 more 버튼으로 스테디셀러 페이지 호출</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품을 수령할 배송지 입력
-- 구매자와 수령인이 동일한 경우 배송지를 구매자의 정보로 자동입력
-- 구매자와 수령인이 상이할 경우 수령인의 이름, 주소, 휴대전화번호 새로 입력
-- 수령인의 주소는 주소검색을 통한 법정 도로명 또는 지번 입력</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>결제수단 입력
 - 신용카드 결제 시 카드사 정보 및 할부 개월 입력
 - 휴대폰 결제 시 휴대번호 입력</t>
@@ -568,42 +437,12 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>상세설명</t>
-  </si>
-  <si>
     <t>goods</t>
   </si>
   <si>
-    <t>이미지</t>
-  </si>
-  <si>
-    <t>요약</t>
-  </si>
-  <si>
-    <t>검색</t>
-  </si>
-  <si>
-    <t>목록</t>
-  </si>
-  <si>
-    <t>로그아웃</t>
-  </si>
-  <si>
-    <t>로그인</t>
-  </si>
-  <si>
     <t>member</t>
   </si>
   <si>
-    <t>로그인 오류</t>
-  </si>
-  <si>
-    <t>회원추가</t>
-  </si>
-  <si>
-    <t>아이디 중복체크</t>
-  </si>
-  <si>
     <t>*입력한 아이디의 중복 여부를 체크한다 중복일시 '일치하는 아이디가 존재합니다.' 메시지 출력</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -644,16 +483,6 @@
   </si>
   <si>
     <t>BS-common-header-03</t>
-  </si>
-  <si>
-    <t>BS-common-footer-01</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>BS-common-footer-02</t>
-  </si>
-  <si>
-    <t>BS-common-footer-03</t>
   </si>
   <si>
     <t>BS-common-side-01</t>
@@ -4720,6 +4549,2875 @@
         <charset val="129"/>
       </rPr>
       <t>정렬</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS-common-footer-01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BS-common-footer-02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>estGoods</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ewGoods</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>teadyGoods</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>delivery</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ddress</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pay</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ethod</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>o</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>rderList</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>r</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>efundList</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ancleList</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>iewMember</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>odifyMember</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>aveMember</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>eaveMember</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>iewAdress</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>v</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>iewCart</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ddCart</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>elCart</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>alcCart</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>hangeCart</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ivCart</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>dChk</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ddMemeber</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ogin</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>oginErr</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ogout</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>oodsList</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>searchGoods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>summGoods</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>oodsImg</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>g</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>oodsDetail</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출간량이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>많은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순서대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">노출
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>제목</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가격</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">제공
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>링크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">구현
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4*4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배열로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">배치
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">노출
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넘어가면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>베스트셀러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호출</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최근에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출판된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순서대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">노출
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4*4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배열로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">배치
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">노출
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넘어가면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>출판된</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>책</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호출</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>판매량</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>기준</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위권</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>안에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가장</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>많이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>머무른</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>순서대로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">노출
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 4*4 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배열로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">배치
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품까지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">노출
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>넘어가면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> more </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>버튼으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>스테디셀러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>페이지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>호출</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상품을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수령할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">입력
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매자와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수령인이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>동일한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>배송지를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매자의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>정보로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">자동입력
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>구매자와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수령인이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>상이할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수령인의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>이름</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>휴대전화번호</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>새로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">입력
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수령인의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주소검색을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>통한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>법정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>도로명</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>또는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>지번</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -4728,7 +7426,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4837,6 +7535,14 @@
       <color theme="0"/>
       <name val="Malgun Gothic"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="0.249977111117893"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -4951,32 +7657,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5009,9 +7694,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -5026,6 +7708,42 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5307,10 +8025,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:J54"/>
+  <dimension ref="B2:J53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+      <selection activeCell="B2" sqref="B2:J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -5327,1508 +8045,1479 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="58.05" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="6" t="s">
-        <v>201</v>
-      </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
+      <c r="B2" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="19"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="5"/>
-      <c r="I3" s="2" t="s">
+      <c r="H3" s="23"/>
+      <c r="I3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="20" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.45">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
     </row>
     <row r="5" spans="2:10" ht="22.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B5" s="9">
+      <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="11" t="s">
+      <c r="C5" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="12" t="s">
-        <v>64</v>
+      <c r="F5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="72" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="9">
+      <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="11" t="s">
+      <c r="C6" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>202</v>
+      <c r="F6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="54" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B7" s="9">
+      <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="13" t="s">
-        <v>203</v>
+      <c r="C7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>162</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="40.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="9">
-        <v>4</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>65</v>
+    <row r="8" spans="2:10" ht="22.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B8" s="2">
+        <v>5</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="22.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="9">
-        <v>5</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="13" t="s">
-        <v>66</v>
+      <c r="B9" s="2">
+        <v>6</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="22.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="9">
-        <v>6</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="13" t="s">
-        <v>69</v>
+    <row r="10" spans="2:10" ht="288" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="2">
+        <v>7</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="288" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="9">
-        <v>7</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="13" t="s">
-        <v>67</v>
+    <row r="11" spans="2:10" ht="40.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="2">
+        <v>8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="40.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B12" s="9">
-        <v>8</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D12" s="11" t="s">
+    <row r="12" spans="2:10" ht="22.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="2">
+        <v>9</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="13" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="22.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B13" s="9">
-        <v>9</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>70</v>
+      <c r="B13" s="2">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="22.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B14" s="9">
-        <v>10</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="14" t="s">
+    <row r="14" spans="2:10" ht="40.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B14" s="2">
+        <v>11</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" ht="108" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="2">
+        <v>12</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="4" t="s">
         <v>71</v>
       </c>
+      <c r="J15" s="6" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="15" spans="2:10" ht="40.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="9">
-        <v>11</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="F15" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>72</v>
+    <row r="16" spans="2:10" ht="72" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="2">
+        <v>13</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>159</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="108" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="9">
-        <v>12</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" ht="72" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="9">
-        <v>13</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J17" s="13" t="s">
-        <v>200</v>
+    <row r="17" spans="2:10" ht="126" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B17" s="2">
+        <v>14</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="126" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="9">
-        <v>14</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" s="9" t="s">
+      <c r="B18" s="2">
+        <v>15</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" ht="144" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="2">
         <v>16</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J18" s="13" t="s">
-        <v>204</v>
+      <c r="C19" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="19" spans="2:10" ht="126" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="9">
-        <v>15</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" s="11" t="s">
+    <row r="20" spans="2:10" ht="54" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="2">
+        <v>17</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D20" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="144" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="9">
-        <v>16</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J20" s="13" t="s">
-        <v>86</v>
+      <c r="E20" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="21" spans="2:10" ht="54" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="9">
-        <v>17</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F21" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="13" t="s">
-        <v>116</v>
+      <c r="B21" s="2">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="54" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="9">
-        <v>18</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>107</v>
+    <row r="22" spans="2:10" ht="40.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="2">
+        <v>19</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="40.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="9">
-        <v>19</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>108</v>
+      <c r="B23" s="2">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
-    <row r="24" spans="2:10" ht="40.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="9">
-        <v>20</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>109</v>
+    <row r="24" spans="2:10" ht="108" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="2">
+        <v>21</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J24" s="28" t="s">
+        <v>200</v>
       </c>
     </row>
-    <row r="25" spans="2:10" ht="108" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="9">
-        <v>21</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>110</v>
+    <row r="25" spans="2:10" ht="72" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="2">
+        <v>22</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J25" s="28" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="72" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="9">
-        <v>22</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>111</v>
+      <c r="B26" s="2">
+        <v>23</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J26" s="28" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="2:10" ht="72" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="9">
-        <v>23</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="13" t="s">
-        <v>112</v>
+      <c r="B27" s="2">
+        <v>24</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J27" s="28" t="s">
+        <v>203</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="72" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="9">
-        <v>24</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>161</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J28" s="13" t="s">
-        <v>113</v>
+    <row r="28" spans="2:10" ht="54" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="2">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>86</v>
       </c>
     </row>
-    <row r="29" spans="2:10" ht="54" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="9">
-        <v>25</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>162</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J29" s="13" t="s">
-        <v>114</v>
+    <row r="29" spans="2:10" ht="40.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="2">
+        <v>26</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="2:10" ht="40.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="9">
-        <v>26</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>90</v>
+      <c r="B30" s="2">
+        <v>27</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>165</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="13" t="s">
-        <v>115</v>
+        <v>125</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J30" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="2:10" ht="40.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="9">
-        <v>27</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" s="9" t="s">
+      <c r="B31" s="2">
+        <v>28</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" ht="22.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="2">
         <v>29</v>
       </c>
-      <c r="E31" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="F31" s="19" t="s">
+      <c r="C32" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J32" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="2">
+        <v>30</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F33" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J33" s="12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="2">
         <v>31</v>
       </c>
-      <c r="G31" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="2:10" ht="40.049999999999997" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="9">
+      <c r="C34" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F34" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J34" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="F32" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J32" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="2:10" ht="22.95" hidden="1" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="9">
-        <v>29</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="9">
-        <v>30</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="E34" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F34" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="35" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="9">
+      <c r="B35" s="2">
+        <v>32</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="26" t="s">
+        <v>181</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J35" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10" ht="54" x14ac:dyDescent="0.45">
+      <c r="B36" s="2">
+        <v>34</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J36" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F35" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="9" t="s">
+    </row>
+    <row r="37" spans="2:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="2">
+        <v>33</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J37" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" ht="54" x14ac:dyDescent="0.45">
+      <c r="B38" s="2">
+        <v>35</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="2">
+        <v>36</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J39" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="2">
+        <v>37</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J40" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="H35" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="14" t="s">
-        <v>41</v>
-      </c>
     </row>
-    <row r="36" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="9">
-        <v>32</v>
-      </c>
-      <c r="C36" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E36" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J36" s="22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10" ht="54" x14ac:dyDescent="0.45">
-      <c r="B37" s="9">
-        <v>34</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E37" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="9">
-        <v>33</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="2:10" ht="54" x14ac:dyDescent="0.45">
-      <c r="B39" s="9">
-        <v>35</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="D39" s="9" t="s">
+    <row r="41" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="2">
+        <v>38</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E39" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J39" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="9">
-        <v>36</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J40" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="9">
-        <v>37</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F41" s="9" t="s">
+      <c r="E41" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F41" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J41" s="20" t="s">
-        <v>20</v>
+      <c r="J41" s="12" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="9">
-        <v>38</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F42" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="9" t="s">
+      <c r="B42" s="2">
+        <v>39</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F42" s="25" t="s">
+        <v>188</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J42" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="J42" s="20" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="9">
-        <v>39</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I43" s="9" t="s">
-        <v>17</v>
+      <c r="B43" s="2">
+        <v>40</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="J43" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="2:10" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="9">
-        <v>40</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E44" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F44" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" s="22" t="s">
-        <v>27</v>
+    <row r="44" spans="2:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="2">
+        <v>41</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="2:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="9">
-        <v>41</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E45" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F45" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" s="24" t="s">
-        <v>129</v>
+      <c r="B45" s="2">
+        <v>42</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D45" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E45" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J45" s="16" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="46" spans="2:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="9">
-        <v>42</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>191</v>
-      </c>
-      <c r="D46" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E46" s="23" t="s">
-        <v>172</v>
-      </c>
-      <c r="F46" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I46" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J46" s="24" t="s">
-        <v>130</v>
+      <c r="B46" s="2">
+        <v>43</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="16" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="9">
-        <v>43</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="F47" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J47" s="24" t="s">
-        <v>131</v>
+      <c r="B47" s="2">
+        <v>44</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E47" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="F47" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="16" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="9">
-        <v>44</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="D48" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E48" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="F48" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I48" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J48" s="24" t="s">
+      <c r="B48" s="2">
+        <v>45</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="E48" s="15" t="s">
         <v>132</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J48" s="16" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="49" spans="2:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="9">
-        <v>45</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" s="23" t="s">
-        <v>173</v>
-      </c>
-      <c r="F49" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J49" s="24" t="s">
+      <c r="B49" s="2">
+        <v>46</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="15" t="s">
         <v>133</v>
+      </c>
+      <c r="F49" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J49" s="16" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="2:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="9">
-        <v>46</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="D50" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E50" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="F50" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J50" s="24" t="s">
-        <v>205</v>
+      <c r="B50" s="2">
+        <v>47</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="F50" s="27" t="s">
+        <v>196</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="16" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="2:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="9">
-        <v>47</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>196</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E51" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="F51" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J51" s="24" t="s">
-        <v>206</v>
+      <c r="B51" s="2">
+        <v>48</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>197</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="16" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="2:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="9">
-        <v>48</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="D52" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E52" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F52" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="G52" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H52" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I52" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J52" s="24" t="s">
+      <c r="B52" s="2">
+        <v>49</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E52" s="15" t="s">
         <v>134</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J52" s="16" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="53" spans="2:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="9">
-        <v>49</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E53" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F53" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H53" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J53" s="24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" ht="22.95" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="9">
+      <c r="B53" s="2">
         <v>50</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C53" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="15" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E54" s="23" t="s">
-        <v>175</v>
-      </c>
-      <c r="F54" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J54" s="24" t="s">
-        <v>136</v>
+      <c r="G53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J53" s="16" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
